--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3311335.63220211</v>
+        <v>3309083.552490901</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.278187532929</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.32727861849619</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666861</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>50.04052206184333</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>85.76552787438006</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>117.4014735002811</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>38.18739105194167</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294454</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386407</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>33.66638448560004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486887</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>645.0321533435006</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4574,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3164.769171255616</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3164.769171255616</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>3164.769171255616</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4668,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4689,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>320.8467993952221</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C7" t="n">
-        <v>320.8467993952221</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D7" t="n">
-        <v>320.8467993952221</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>320.8467993952221</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>320.8467993952221</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>153.1439627699411</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>610.613774675031</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="W7" t="n">
-        <v>541.6393785387522</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="X7" t="n">
-        <v>541.6393785387522</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y7" t="n">
-        <v>320.8467993952221</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3287.032699334482</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3033.502222608318</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2702.439335264748</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2349.670679994633</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6315,16 +6315,16 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6783,16 +6783,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>252.5180899036441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25843,10 +25843,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>700103.3209317887</v>
+        <v>700103.3209317885</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700103.3209317885</v>
+        <v>700103.3209317884</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26317,43 @@
         <v>738937.5928778549</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210049</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405244</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151828</v>
+        <v>-791337.8375151833</v>
       </c>
       <c r="C6" t="n">
         <v>537406.9082124091</v>
@@ -26528,40 +26528,40 @@
         <v>537406.9082124096</v>
       </c>
       <c r="E6" t="n">
-        <v>285070.2520478758</v>
+        <v>285035.5141224399</v>
       </c>
       <c r="F6" t="n">
-        <v>610482.7138552308</v>
+        <v>610447.9759297949</v>
       </c>
       <c r="G6" t="n">
-        <v>610482.7138552313</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="H6" t="n">
-        <v>610482.7138552307</v>
+        <v>610447.9759297955</v>
       </c>
       <c r="I6" t="n">
-        <v>610482.7138552311</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="J6" t="n">
-        <v>392951.5114579534</v>
+        <v>392916.7735325174</v>
       </c>
       <c r="K6" t="n">
-        <v>610482.7138552307</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="L6" t="n">
-        <v>610482.7138552308</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="M6" t="n">
-        <v>525427.685919719</v>
+        <v>525392.9479942835</v>
       </c>
       <c r="N6" t="n">
-        <v>610482.7138552308</v>
+        <v>610447.9759297952</v>
       </c>
       <c r="O6" t="n">
-        <v>610482.7138552311</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552305</v>
+        <v>610447.9759297952</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393328</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112253</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>136.221670657673</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.624878506812</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>153.8774480777768</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>58.98948703994073</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>168.8103647053318</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>165.7305790876785</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908835</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28567,10 +28567,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,10 +33415,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,10 +34147,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,10 +37795,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
